--- a/QuanLyNhaHang/doanh-thu/DoanhThuThang.xlsx
+++ b/QuanLyNhaHang/doanh-thu/DoanhThuThang.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t>Số bàn</t>
   </si>
@@ -26,55 +26,40 @@
     <t>Tổng tiền</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Quang Vu</t>
-  </si>
-  <si>
-    <t>2021-08-13 00:00:00.0</t>
-  </si>
-  <si>
-    <t>1,060,000</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hải</t>
+  </si>
+  <si>
+    <t>2021-08-15 00:00:00.0</t>
+  </si>
+  <si>
+    <t>680,000</t>
+  </si>
+  <si>
+    <t>2021-08-16 00:00:00.0</t>
+  </si>
+  <si>
+    <t>150,000</t>
+  </si>
+  <si>
+    <t>340,000</t>
+  </si>
+  <si>
+    <t>490,000</t>
+  </si>
+  <si>
+    <t>300,000</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1,134,000</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1,613,000</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1,950,000</t>
-  </si>
-  <si>
-    <t>870,000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Pham Quang Vu</t>
-  </si>
-  <si>
     <t>190,000</t>
   </si>
   <si>
-    <t>Phạm Văn Hải</t>
+    <t>13</t>
   </si>
 </sst>
 </file>
@@ -149,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -185,27 +170,27 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="1">
         <v>5</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s" s="1">
         <v>5</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="1">
         <v>10</v>
@@ -213,86 +198,128 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="1">
         <v>11</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s" s="1">
         <v>5</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s" s="1">
         <v>5</v>
       </c>
       <c r="C7" t="s" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s" s="1">
         <v>5</v>
       </c>
       <c r="C8" t="s" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s" s="1">
-        <v>19</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
